--- a/Code/Results/Cases/Case_4_210/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_210/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.29393788204002</v>
+        <v>9.308704024249916</v>
       </c>
       <c r="C2">
-        <v>8.515574694801554</v>
+        <v>6.437078245076543</v>
       </c>
       <c r="D2">
-        <v>7.157217917984489</v>
+        <v>5.977220058499384</v>
       </c>
       <c r="E2">
-        <v>29.54832218279519</v>
+        <v>16.47857091707814</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>22.8973705227178</v>
+        <v>26.97136856850733</v>
       </c>
       <c r="H2">
-        <v>8.650807689782582</v>
+        <v>13.7802570807459</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.90054772061414</v>
+        <v>8.616779430938299</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.33227237498347</v>
+        <v>20.74820733362123</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.38916077469849</v>
+        <v>8.945272875311051</v>
       </c>
       <c r="C3">
-        <v>8.167069785479889</v>
+        <v>6.282184168223292</v>
       </c>
       <c r="D3">
-        <v>6.662242655749824</v>
+        <v>5.856905516016423</v>
       </c>
       <c r="E3">
-        <v>27.41237241518585</v>
+        <v>15.54580898052582</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>22.33172334393062</v>
+        <v>26.98416138509352</v>
       </c>
       <c r="H3">
-        <v>8.695439862248669</v>
+        <v>13.82916981153145</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.20125150317222</v>
+        <v>8.270947341183369</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.2654259625669</v>
+        <v>20.81612045160561</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.80272823870413</v>
+        <v>8.71569299596282</v>
       </c>
       <c r="C4">
-        <v>7.945567806816764</v>
+        <v>6.184375474572085</v>
       </c>
       <c r="D4">
-        <v>6.341320869958496</v>
+        <v>5.783531040022905</v>
       </c>
       <c r="E4">
-        <v>26.03734832174607</v>
+        <v>14.94833663402791</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>22.0129157599639</v>
+        <v>27.00280635262983</v>
       </c>
       <c r="H4">
-        <v>8.730108788052771</v>
+        <v>13.86180807550766</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.75121328195578</v>
+        <v>8.049334571137827</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.24089813771139</v>
+        <v>20.86322586455669</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.55597356866255</v>
+        <v>8.620662900412873</v>
       </c>
       <c r="C5">
-        <v>7.853484822473709</v>
+        <v>6.14387496377978</v>
       </c>
       <c r="D5">
-        <v>6.212779732162403</v>
+        <v>5.753802508808223</v>
       </c>
       <c r="E5">
-        <v>25.46073997169489</v>
+        <v>14.69890766435346</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>21.89009630196726</v>
+        <v>27.0131053990796</v>
       </c>
       <c r="H5">
-        <v>8.745977202202299</v>
+        <v>13.87576262031505</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.56269144343677</v>
+        <v>7.956771180255407</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.23486928280168</v>
+        <v>20.88377568512181</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.51453028895664</v>
+        <v>8.604798660941466</v>
       </c>
       <c r="C6">
-        <v>7.838086969369392</v>
+        <v>6.137112197867718</v>
       </c>
       <c r="D6">
-        <v>6.193508369253445</v>
+        <v>5.748877880388744</v>
       </c>
       <c r="E6">
-        <v>25.36400327365274</v>
+        <v>14.65713949843556</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21.87012817358147</v>
+        <v>27.01497828112703</v>
       </c>
       <c r="H6">
-        <v>8.748714815017857</v>
+        <v>13.87811924312698</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.53108029728508</v>
+        <v>7.941267392227671</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.23410222758704</v>
+        <v>20.88726957906349</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.79943191854806</v>
+        <v>8.714417156320014</v>
       </c>
       <c r="C7">
-        <v>7.944333205741752</v>
+        <v>6.183831821983091</v>
       </c>
       <c r="D7">
-        <v>6.339516503147561</v>
+        <v>5.783129351534159</v>
       </c>
       <c r="E7">
-        <v>26.02963825684581</v>
+        <v>14.94499645996254</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>22.01123075436517</v>
+        <v>27.00293433068208</v>
       </c>
       <c r="H7">
-        <v>8.730315858836443</v>
+        <v>13.8619936239859</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.74869146451354</v>
+        <v>8.048095247610384</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.24080101998025</v>
+        <v>20.86349753190052</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.98837361743297</v>
+        <v>9.184808708220974</v>
       </c>
       <c r="C8">
-        <v>8.397009812213874</v>
+        <v>6.384253278870827</v>
       </c>
       <c r="D8">
-        <v>6.9900579488507</v>
+        <v>5.935659802405695</v>
       </c>
       <c r="E8">
-        <v>28.82485078582437</v>
+        <v>16.1622384628353</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>22.69638754977504</v>
+        <v>26.97353346118482</v>
       </c>
       <c r="H8">
-        <v>8.66463610350189</v>
+        <v>13.79658077429199</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.66375502545285</v>
+        <v>8.49950344135466</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.30568481303599</v>
+        <v>20.77049839942238</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.07578270968107</v>
+        <v>10.05072072456783</v>
       </c>
       <c r="C9">
-        <v>9.222527151276358</v>
+        <v>6.754327402936585</v>
       </c>
       <c r="D9">
-        <v>8.13251022736709</v>
+        <v>6.236721745447356</v>
       </c>
       <c r="E9">
-        <v>33.81644471931124</v>
+        <v>18.42313885602556</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>24.26783191075949</v>
+        <v>27.00191904782558</v>
       </c>
       <c r="H9">
-        <v>8.597531726984588</v>
+        <v>13.68902670921545</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.29220097673831</v>
+        <v>9.308296222581507</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.5720681281076</v>
+        <v>20.63126418429509</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.46276184253022</v>
+        <v>10.64611861107303</v>
       </c>
       <c r="C10">
-        <v>9.788567772459174</v>
+        <v>7.010389500585874</v>
       </c>
       <c r="D10">
-        <v>8.893039363510068</v>
+        <v>6.45649531895684</v>
       </c>
       <c r="E10">
-        <v>37.206882238006</v>
+        <v>20.05936710415525</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.56235584032727</v>
+        <v>27.07563116908796</v>
       </c>
       <c r="H10">
-        <v>8.591689610817273</v>
+        <v>13.62270071860918</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.38602448452617</v>
+        <v>9.852736994862139</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.86327641779613</v>
+        <v>20.55558022621615</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.06253561367818</v>
+        <v>10.90705355415064</v>
       </c>
       <c r="C11">
-        <v>10.03696081976323</v>
+        <v>7.123100786117787</v>
       </c>
       <c r="D11">
-        <v>9.222459695440007</v>
+        <v>6.555650169563235</v>
       </c>
       <c r="E11">
-        <v>38.69451757715838</v>
+        <v>20.76158916221022</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>26.18173417339257</v>
+        <v>27.12067051463908</v>
       </c>
       <c r="H11">
-        <v>8.599814418193754</v>
+        <v>13.59529701781178</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.86136794760098</v>
+        <v>10.08909105787929</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.01865470554034</v>
+        <v>20.52699042379795</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.28523388497843</v>
+        <v>11.004363622593</v>
       </c>
       <c r="C12">
-        <v>10.12969723200105</v>
+        <v>7.165213814046073</v>
       </c>
       <c r="D12">
-        <v>9.344870748972149</v>
+        <v>6.593039079519052</v>
       </c>
       <c r="E12">
-        <v>39.25047927888626</v>
+        <v>21.0214836220469</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.42067137362586</v>
+        <v>27.13937816185733</v>
       </c>
       <c r="H12">
-        <v>8.604558610551512</v>
+        <v>13.58531915505154</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.03818649024681</v>
+        <v>10.176930578445</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.08095614540859</v>
+        <v>20.51700857077698</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.23746751951701</v>
+        <v>10.9834739643061</v>
       </c>
       <c r="C13">
-        <v>10.10978385447847</v>
+        <v>7.156169681129229</v>
       </c>
       <c r="D13">
-        <v>9.318610344612207</v>
+        <v>6.584994399540394</v>
       </c>
       <c r="E13">
-        <v>39.13106252134288</v>
+        <v>20.96577799700194</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26.36901632933193</v>
+        <v>27.13527572315926</v>
       </c>
       <c r="H13">
-        <v>8.603460786569718</v>
+        <v>13.58745028659876</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.00024669109055</v>
+        <v>10.15808721831715</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.06738174427767</v>
+        <v>20.51912070924969</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.08094541261317</v>
+        <v>10.91508977152823</v>
       </c>
       <c r="C14">
-        <v>10.04461690602488</v>
+        <v>7.126576979217365</v>
       </c>
       <c r="D14">
-        <v>9.232577013812037</v>
+        <v>6.558729587188957</v>
       </c>
       <c r="E14">
-        <v>38.74040165324219</v>
+        <v>20.78309133304261</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>26.20130355381114</v>
+        <v>27.1221765157485</v>
       </c>
       <c r="H14">
-        <v>8.600170619122586</v>
+        <v>13.59446812291079</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.8759785959542</v>
+        <v>10.09635117330652</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.02370992322941</v>
+        <v>20.52615225949946</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.98449697898949</v>
+        <v>10.87300505430957</v>
       </c>
       <c r="C15">
-        <v>10.00452744788459</v>
+        <v>7.108375860506203</v>
       </c>
       <c r="D15">
-        <v>9.179576673910528</v>
+        <v>6.542619769705979</v>
       </c>
       <c r="E15">
-        <v>38.50016582469478</v>
+        <v>20.67040723816322</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>26.09914711722562</v>
+        <v>27.11436791704779</v>
       </c>
       <c r="H15">
-        <v>8.598376009767247</v>
+        <v>13.5988187907575</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.79944682300026</v>
+        <v>10.05831858090199</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.99741561380449</v>
+        <v>20.53056940168279</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.42294287963766</v>
+        <v>10.62885977213842</v>
       </c>
       <c r="C16">
-        <v>9.772149989147808</v>
+        <v>7.002945380717081</v>
       </c>
       <c r="D16">
-        <v>8.871181878788047</v>
+        <v>6.449995251397047</v>
       </c>
       <c r="E16">
-        <v>37.10860202652106</v>
+        <v>20.01263078392628</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.52249186591493</v>
+        <v>27.07291915027705</v>
       </c>
       <c r="H16">
-        <v>8.591385498037042</v>
+        <v>13.62454742708324</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.35451308674019</v>
+        <v>9.837059844283988</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.85359757332629</v>
+        <v>20.55756655504701</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.07050392715794</v>
+        <v>10.47648870778203</v>
       </c>
       <c r="C17">
-        <v>9.62724858012198</v>
+        <v>6.937281848895182</v>
       </c>
       <c r="D17">
-        <v>8.677785419934429</v>
+        <v>6.392933020017984</v>
       </c>
       <c r="E17">
-        <v>36.24124813547489</v>
+        <v>19.5983453721694</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>25.17654306310653</v>
+        <v>27.05043811256483</v>
       </c>
       <c r="H17">
-        <v>8.589940420613985</v>
+        <v>13.64104103340427</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.07587055574996</v>
+        <v>9.698399602808754</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.77135849258138</v>
+        <v>20.57562751355466</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.86485247713371</v>
+        <v>10.38791944803208</v>
       </c>
       <c r="C18">
-        <v>9.543048778790045</v>
+        <v>6.899160215197685</v>
       </c>
       <c r="D18">
-        <v>8.564988377271044</v>
+        <v>6.36003733152292</v>
       </c>
       <c r="E18">
-        <v>35.73718899094266</v>
+        <v>19.35609414795806</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>24.98043157403814</v>
+        <v>27.03859107423427</v>
       </c>
       <c r="H18">
-        <v>8.590116850735379</v>
+        <v>13.6507882135337</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.91350753264907</v>
+        <v>9.617582629885856</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.72620300247743</v>
+        <v>20.58656504333556</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.79471616684284</v>
+        <v>10.35777423191837</v>
       </c>
       <c r="C19">
-        <v>9.514393728960101</v>
+        <v>6.886192959079067</v>
       </c>
       <c r="D19">
-        <v>8.526527847765035</v>
+        <v>6.34888781538533</v>
       </c>
       <c r="E19">
-        <v>35.56561940904322</v>
+        <v>19.27339000577048</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>24.91452439108852</v>
+        <v>27.03476598497091</v>
       </c>
       <c r="H19">
-        <v>8.590346156185172</v>
+        <v>13.65413314337649</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.85817409396145</v>
+        <v>9.590037954013935</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.71127752219167</v>
+        <v>20.59036250197343</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.1083253109071</v>
+        <v>10.49280563657025</v>
       </c>
       <c r="C20">
-        <v>9.642762354728873</v>
+        <v>6.944308645397341</v>
       </c>
       <c r="D20">
-        <v>8.698533983222131</v>
+        <v>6.399015457223022</v>
       </c>
       <c r="E20">
-        <v>36.33411216989938</v>
+        <v>19.64285690601157</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.21307296026192</v>
+        <v>27.05271913226624</v>
       </c>
       <c r="H20">
-        <v>8.589989136440842</v>
+        <v>13.63925829164356</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.10574930572904</v>
+        <v>9.713270542693056</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.77988961475422</v>
+        <v>20.57364800277685</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.12703927997992</v>
+        <v>10.93521712850574</v>
       </c>
       <c r="C21">
-        <v>10.06379404946151</v>
+        <v>7.135284690496449</v>
       </c>
       <c r="D21">
-        <v>9.257910030311264</v>
+        <v>6.566448824660472</v>
       </c>
       <c r="E21">
-        <v>38.85534415482348</v>
+        <v>20.83691400210287</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.25044551808904</v>
+        <v>27.12597926406239</v>
       </c>
       <c r="H21">
-        <v>8.601090809057196</v>
+        <v>13.5923959668791</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.91256537749902</v>
+        <v>10.11452992493823</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.03644208141663</v>
+        <v>20.52406396678117</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.76707982452496</v>
+        <v>11.21558601356134</v>
       </c>
       <c r="C22">
-        <v>10.33124068128415</v>
+        <v>7.256775781376279</v>
       </c>
       <c r="D22">
-        <v>9.609918006311794</v>
+        <v>6.674932888101377</v>
       </c>
       <c r="E22">
-        <v>40.46040469573733</v>
+        <v>21.58221489536689</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.95404665130732</v>
+        <v>27.18348620662922</v>
       </c>
       <c r="H22">
-        <v>8.618123641609495</v>
+        <v>13.5640968636457</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.42132421875818</v>
+        <v>10.36707240268514</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.22437527653627</v>
+        <v>20.49658225610581</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.42781253041232</v>
+        <v>11.06677257985109</v>
       </c>
       <c r="C23">
-        <v>10.18920879520686</v>
+        <v>7.192245668045673</v>
       </c>
       <c r="D23">
-        <v>9.42327095352679</v>
+        <v>6.617132081203756</v>
       </c>
       <c r="E23">
-        <v>39.6074849943699</v>
+        <v>21.18763315012625</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.57617004173376</v>
+        <v>27.1519143608328</v>
       </c>
       <c r="H23">
-        <v>8.608098360150487</v>
+        <v>13.57898719533599</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.15147878579157</v>
+        <v>10.23318393373265</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.12216295270104</v>
+        <v>20.51079767368918</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.09123570422998</v>
+        <v>10.4854317658321</v>
       </c>
       <c r="C24">
-        <v>9.635751360685418</v>
+        <v>6.941132983710466</v>
       </c>
       <c r="D24">
-        <v>8.689158578644571</v>
+        <v>6.396265864120683</v>
       </c>
       <c r="E24">
-        <v>36.29214521432459</v>
+        <v>19.62274593123593</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.19654913776403</v>
+        <v>27.05168452630263</v>
       </c>
       <c r="H24">
-        <v>8.589963983539089</v>
+        <v>13.64006344444479</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.09224787580162</v>
+        <v>9.706550812321904</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.77602608883087</v>
+        <v>20.57454121406955</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.53702520056753</v>
+        <v>9.823226913256015</v>
       </c>
       <c r="C25">
-        <v>9.006164999569542</v>
+        <v>6.656869107142467</v>
       </c>
       <c r="D25">
-        <v>7.837470158865194</v>
+        <v>6.155342833381821</v>
       </c>
       <c r="E25">
-        <v>32.51639336972861</v>
+        <v>17.78302421084269</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>23.81815447920349</v>
+        <v>26.98497612115555</v>
       </c>
       <c r="H25">
-        <v>8.608492927274353</v>
+        <v>13.71589822598354</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.86963854005761</v>
+        <v>9.098038967930682</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.48398386852331</v>
+        <v>20.66427926304305</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_210/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_210/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.308704024249916</v>
+        <v>14.29393788204008</v>
       </c>
       <c r="C2">
-        <v>6.437078245076543</v>
+        <v>8.515574694801758</v>
       </c>
       <c r="D2">
-        <v>5.977220058499384</v>
+        <v>7.157217917984507</v>
       </c>
       <c r="E2">
-        <v>16.47857091707814</v>
+        <v>29.54832218279518</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>26.97136856850733</v>
+        <v>22.89737052271753</v>
       </c>
       <c r="H2">
-        <v>13.7802570807459</v>
+        <v>8.650807689782566</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.616779430938299</v>
+        <v>12.90054772061423</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.74820733362123</v>
+        <v>14.33227237498333</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.945272875311051</v>
+        <v>13.38916077469852</v>
       </c>
       <c r="C3">
-        <v>6.282184168223292</v>
+        <v>8.167069785479889</v>
       </c>
       <c r="D3">
-        <v>5.856905516016423</v>
+        <v>6.662242655749856</v>
       </c>
       <c r="E3">
-        <v>15.54580898052582</v>
+        <v>27.41237241518591</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>26.98416138509352</v>
+        <v>22.3317233439305</v>
       </c>
       <c r="H3">
-        <v>13.82916981153145</v>
+        <v>8.69543986224857</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.270947341183369</v>
+        <v>12.20125150317226</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.81612045160561</v>
+        <v>14.26542596256682</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.71569299596282</v>
+        <v>12.80272823870409</v>
       </c>
       <c r="C4">
-        <v>6.184375474572085</v>
+        <v>7.945567806816658</v>
       </c>
       <c r="D4">
-        <v>5.783531040022905</v>
+        <v>6.341320869958467</v>
       </c>
       <c r="E4">
-        <v>14.94833663402791</v>
+        <v>26.03734832174607</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>27.00280635262983</v>
+        <v>22.01291575996391</v>
       </c>
       <c r="H4">
-        <v>13.86180807550766</v>
+        <v>8.730108788052771</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.049334571137827</v>
+        <v>11.75121328195572</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.86322586455669</v>
+        <v>14.24089813771142</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.620662900412873</v>
+        <v>12.55597356866249</v>
       </c>
       <c r="C5">
-        <v>6.14387496377978</v>
+        <v>7.853484822473915</v>
       </c>
       <c r="D5">
-        <v>5.753802508808223</v>
+        <v>6.212779732162406</v>
       </c>
       <c r="E5">
-        <v>14.69890766435346</v>
+        <v>25.46073997169492</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>27.0131053990796</v>
+        <v>21.8900963019673</v>
       </c>
       <c r="H5">
-        <v>13.87576262031505</v>
+        <v>8.745977202202358</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.956771180255407</v>
+        <v>11.56269144343677</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.88377568512181</v>
+        <v>14.23486928280179</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.604798660941466</v>
+        <v>12.51453028895667</v>
       </c>
       <c r="C6">
-        <v>6.137112197867718</v>
+        <v>7.838086969369488</v>
       </c>
       <c r="D6">
-        <v>5.748877880388744</v>
+        <v>6.193508369253451</v>
       </c>
       <c r="E6">
-        <v>14.65713949843556</v>
+        <v>25.36400327365271</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>27.01497828112703</v>
+        <v>21.87012817358127</v>
       </c>
       <c r="H6">
-        <v>13.87811924312698</v>
+        <v>8.748714815017799</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.941267392227671</v>
+        <v>11.53108029728513</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.88726957906349</v>
+        <v>14.23410222758692</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.714417156320014</v>
+        <v>12.79943191854811</v>
       </c>
       <c r="C7">
-        <v>6.183831821983091</v>
+        <v>7.944333205741826</v>
       </c>
       <c r="D7">
-        <v>5.783129351534159</v>
+        <v>6.339516503147513</v>
       </c>
       <c r="E7">
-        <v>14.94499645996254</v>
+        <v>26.02963825684584</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>27.00293433068208</v>
+        <v>22.01123075436525</v>
       </c>
       <c r="H7">
-        <v>13.8619936239859</v>
+        <v>8.730315858836398</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.048095247610384</v>
+        <v>11.74869146451356</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.86349753190052</v>
+        <v>14.24080101998021</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.184808708220974</v>
+        <v>13.9883736174329</v>
       </c>
       <c r="C8">
-        <v>6.384253278870827</v>
+        <v>8.397009812213756</v>
       </c>
       <c r="D8">
-        <v>5.935659802405695</v>
+        <v>6.990057948850724</v>
       </c>
       <c r="E8">
-        <v>16.1622384628353</v>
+        <v>28.82485078582443</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>26.97353346118482</v>
+        <v>22.69638754977516</v>
       </c>
       <c r="H8">
-        <v>13.79658077429199</v>
+        <v>8.66463610350189</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.49950344135466</v>
+        <v>12.6637550254528</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.77049839942238</v>
+        <v>14.30568481303605</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.05072072456783</v>
+        <v>16.07578270968109</v>
       </c>
       <c r="C9">
-        <v>6.754327402936585</v>
+        <v>9.222527151276516</v>
       </c>
       <c r="D9">
-        <v>6.236721745447356</v>
+        <v>8.132510227367154</v>
       </c>
       <c r="E9">
-        <v>18.42313885602556</v>
+        <v>33.81644471931131</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.00191904782558</v>
+        <v>24.26783191075929</v>
       </c>
       <c r="H9">
-        <v>13.68902670921545</v>
+        <v>8.597531726984492</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.308296222581507</v>
+        <v>14.29220097673834</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.63126418429509</v>
+        <v>14.57206812810747</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.64611861107303</v>
+        <v>17.46276184253022</v>
       </c>
       <c r="C10">
-        <v>7.010389500585874</v>
+        <v>9.788567772459283</v>
       </c>
       <c r="D10">
-        <v>6.45649531895684</v>
+        <v>8.893039363510013</v>
       </c>
       <c r="E10">
-        <v>20.05936710415525</v>
+        <v>37.20688223800603</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.07563116908796</v>
+        <v>25.56235584032721</v>
       </c>
       <c r="H10">
-        <v>13.62270071860918</v>
+        <v>8.591689610817266</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.852736994862139</v>
+        <v>15.3860244845262</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.55558022621615</v>
+        <v>14.86327641779608</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.90705355415064</v>
+        <v>18.06253561367809</v>
       </c>
       <c r="C11">
-        <v>7.123100786117787</v>
+        <v>10.03696081976336</v>
       </c>
       <c r="D11">
-        <v>6.555650169563235</v>
+        <v>9.222459695439969</v>
       </c>
       <c r="E11">
-        <v>20.76158916221022</v>
+        <v>38.69451757715831</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>27.12067051463908</v>
+        <v>26.18173417339255</v>
       </c>
       <c r="H11">
-        <v>13.59529701781178</v>
+        <v>8.599814418193869</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.08909105787929</v>
+        <v>15.86136794760094</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.52699042379795</v>
+        <v>15.01865470554038</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.004363622593</v>
+        <v>18.28523388497847</v>
       </c>
       <c r="C12">
-        <v>7.165213814046073</v>
+        <v>10.12969723200113</v>
       </c>
       <c r="D12">
-        <v>6.593039079519052</v>
+        <v>9.344870748972047</v>
       </c>
       <c r="E12">
-        <v>21.0214836220469</v>
+        <v>39.25047927888628</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>27.13937816185733</v>
+        <v>26.4206713736257</v>
       </c>
       <c r="H12">
-        <v>13.58531915505154</v>
+        <v>8.604558610551519</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.176930578445</v>
+        <v>16.03818649024684</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.51700857077698</v>
+        <v>15.08095614540852</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.9834739643061</v>
+        <v>18.23746751951695</v>
       </c>
       <c r="C13">
-        <v>7.156169681129229</v>
+        <v>10.10978385447846</v>
       </c>
       <c r="D13">
-        <v>6.584994399540394</v>
+        <v>9.318610344612207</v>
       </c>
       <c r="E13">
-        <v>20.96577799700194</v>
+        <v>39.13106252134293</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>27.13527572315926</v>
+        <v>26.36901632933197</v>
       </c>
       <c r="H13">
-        <v>13.58745028659876</v>
+        <v>8.603460786569721</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.15808721831715</v>
+        <v>16.00024669109055</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.51912070924969</v>
+        <v>15.06738174427768</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.91508977152823</v>
+        <v>18.0809454126131</v>
       </c>
       <c r="C14">
-        <v>7.126576979217365</v>
+        <v>10.04461690602494</v>
       </c>
       <c r="D14">
-        <v>6.558729587188957</v>
+        <v>9.232577013812065</v>
       </c>
       <c r="E14">
-        <v>20.78309133304261</v>
+        <v>38.74040165324221</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>27.1221765157485</v>
+        <v>26.20130355381127</v>
       </c>
       <c r="H14">
-        <v>13.59446812291079</v>
+        <v>8.60017061912265</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.09635117330652</v>
+        <v>15.87597859595415</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.52615225949946</v>
+        <v>15.02370992322951</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.87300505430957</v>
+        <v>17.98449697898952</v>
       </c>
       <c r="C15">
-        <v>7.108375860506203</v>
+        <v>10.00452744788467</v>
       </c>
       <c r="D15">
-        <v>6.542619769705979</v>
+        <v>9.17957667391058</v>
       </c>
       <c r="E15">
-        <v>20.67040723816322</v>
+        <v>38.50016582469491</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>27.11436791704779</v>
+        <v>26.09914711722557</v>
       </c>
       <c r="H15">
-        <v>13.5988187907575</v>
+        <v>8.598376009767158</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.05831858090199</v>
+        <v>15.7994468230003</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.53056940168279</v>
+        <v>14.99741561380439</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.62885977213842</v>
+        <v>17.42294287963769</v>
       </c>
       <c r="C16">
-        <v>7.002945380717081</v>
+        <v>9.772149989147712</v>
       </c>
       <c r="D16">
-        <v>6.449995251397047</v>
+        <v>8.871181878787928</v>
       </c>
       <c r="E16">
-        <v>20.01263078392628</v>
+        <v>37.10860202652113</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.07291915027705</v>
+        <v>25.52249186591494</v>
       </c>
       <c r="H16">
-        <v>13.62454742708324</v>
+        <v>8.591385498037006</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.837059844283988</v>
+        <v>15.35451308674019</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.55756655504701</v>
+        <v>14.85359757332625</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.47648870778203</v>
+        <v>17.070503927158</v>
       </c>
       <c r="C17">
-        <v>6.937281848895182</v>
+        <v>9.62724858012194</v>
       </c>
       <c r="D17">
-        <v>6.392933020017984</v>
+        <v>8.677785419934487</v>
       </c>
       <c r="E17">
-        <v>19.5983453721694</v>
+        <v>36.24124813547489</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>27.05043811256483</v>
+        <v>25.17654306310654</v>
       </c>
       <c r="H17">
-        <v>13.64104103340427</v>
+        <v>8.589940420613914</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.698399602808754</v>
+        <v>15.07587055574998</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.57562751355466</v>
+        <v>14.77135849258133</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.38791944803208</v>
+        <v>16.86485247713371</v>
       </c>
       <c r="C18">
-        <v>6.899160215197685</v>
+        <v>9.543048778790252</v>
       </c>
       <c r="D18">
-        <v>6.36003733152292</v>
+        <v>8.564988377271023</v>
       </c>
       <c r="E18">
-        <v>19.35609414795806</v>
+        <v>35.73718899094268</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>27.03859107423427</v>
+        <v>24.98043157403796</v>
       </c>
       <c r="H18">
-        <v>13.6507882135337</v>
+        <v>8.590116850735354</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.617582629885856</v>
+        <v>14.91350753264914</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.58656504333556</v>
+        <v>14.72620300247732</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.35777423191837</v>
+        <v>16.79471616684281</v>
       </c>
       <c r="C19">
-        <v>6.886192959079067</v>
+        <v>9.514393728960339</v>
       </c>
       <c r="D19">
-        <v>6.34888781538533</v>
+        <v>8.526527847765056</v>
       </c>
       <c r="E19">
-        <v>19.27339000577048</v>
+        <v>35.56561940904322</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.03476598497091</v>
+        <v>24.9145243910885</v>
       </c>
       <c r="H19">
-        <v>13.65413314337649</v>
+        <v>8.590346156185172</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.590037954013935</v>
+        <v>14.85817409396145</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.59036250197343</v>
+        <v>14.71127752219166</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.49280563657025</v>
+        <v>17.10832531090714</v>
       </c>
       <c r="C20">
-        <v>6.944308645397341</v>
+        <v>9.642762354728928</v>
       </c>
       <c r="D20">
-        <v>6.399015457223022</v>
+        <v>8.698533983222148</v>
       </c>
       <c r="E20">
-        <v>19.64285690601157</v>
+        <v>36.33411216989936</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.05271913226624</v>
+        <v>25.21307296026188</v>
       </c>
       <c r="H20">
-        <v>13.63925829164356</v>
+        <v>8.589989136440812</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.713270542693056</v>
+        <v>15.10574930572909</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.57364800277685</v>
+        <v>14.77988961475411</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.93521712850574</v>
+        <v>18.12703927997996</v>
       </c>
       <c r="C21">
-        <v>7.135284690496449</v>
+        <v>10.06379404946143</v>
       </c>
       <c r="D21">
-        <v>6.566448824660472</v>
+        <v>9.257910030311258</v>
       </c>
       <c r="E21">
-        <v>20.83691400210287</v>
+        <v>38.85534415482337</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>27.12597926406239</v>
+        <v>26.25044551808902</v>
       </c>
       <c r="H21">
-        <v>13.5923959668791</v>
+        <v>8.601090809057196</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.11452992493823</v>
+        <v>15.91256537749904</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.52406396678117</v>
+        <v>15.03644208141659</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.21558601356134</v>
+        <v>18.76707982452498</v>
       </c>
       <c r="C22">
-        <v>7.256775781376279</v>
+        <v>10.33124068128422</v>
       </c>
       <c r="D22">
-        <v>6.674932888101377</v>
+        <v>9.609918006311771</v>
       </c>
       <c r="E22">
-        <v>21.58221489536689</v>
+        <v>40.46040469573736</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>27.18348620662922</v>
+        <v>26.95404665130728</v>
       </c>
       <c r="H22">
-        <v>13.5640968636457</v>
+        <v>8.618123641609463</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.36707240268514</v>
+        <v>16.42132421875825</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.49658225610581</v>
+        <v>15.22437527653616</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.06677257985109</v>
+        <v>18.4278125304123</v>
       </c>
       <c r="C23">
-        <v>7.192245668045673</v>
+        <v>10.18920879520694</v>
       </c>
       <c r="D23">
-        <v>6.617132081203756</v>
+        <v>9.42327095352681</v>
       </c>
       <c r="E23">
-        <v>21.18763315012625</v>
+        <v>39.60748499436993</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>27.1519143608328</v>
+        <v>26.57617004173371</v>
       </c>
       <c r="H23">
-        <v>13.57898719533599</v>
+        <v>8.60809836015048</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.23318393373265</v>
+        <v>16.15147878579157</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.51079767368918</v>
+        <v>15.12216295270099</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.4854317658321</v>
+        <v>17.09123570423</v>
       </c>
       <c r="C24">
-        <v>6.941132983710466</v>
+        <v>9.635751360685669</v>
       </c>
       <c r="D24">
-        <v>6.396265864120683</v>
+        <v>8.68915857864463</v>
       </c>
       <c r="E24">
-        <v>19.62274593123593</v>
+        <v>36.29214521432464</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.05168452630263</v>
+        <v>25.19654913776399</v>
       </c>
       <c r="H24">
-        <v>13.64006344444479</v>
+        <v>8.589963983539086</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.706550812321904</v>
+        <v>15.09224787580163</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.57454121406955</v>
+        <v>14.77602608883086</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.823226913256015</v>
+        <v>15.53702520056762</v>
       </c>
       <c r="C25">
-        <v>6.656869107142467</v>
+        <v>9.006164999569616</v>
       </c>
       <c r="D25">
-        <v>6.155342833381821</v>
+        <v>7.83747015886525</v>
       </c>
       <c r="E25">
-        <v>17.78302421084269</v>
+        <v>32.51639336972858</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>26.98497612115555</v>
+        <v>23.81815447920334</v>
       </c>
       <c r="H25">
-        <v>13.71589822598354</v>
+        <v>8.608492927274291</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.098038967930682</v>
+        <v>13.86963854005767</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.66427926304305</v>
+        <v>14.48398386852322</v>
       </c>
     </row>
   </sheetData>
